--- a/MLAnalysis/Modelsaved/Noticeable.xlsx
+++ b/MLAnalysis/Modelsaved/Noticeable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A08DA2-0423-4F4B-812C-6266FEE6C25E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7335" yWindow="1890" windowWidth="19140" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>PMC4764851</t>
+  </si>
+  <si>
+    <t>PRJNA282925</t>
+  </si>
+  <si>
+    <t>PMC5381642</t>
+  </si>
+  <si>
+    <t>PMCID</t>
+  </si>
+  <si>
+    <t>AccessNb</t>
+  </si>
+  <si>
+    <t>Crea-count</t>
+  </si>
+  <si>
+    <t>Creat-proba</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +56,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,17 +78,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,13 +402,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99999999703769604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.99998863766370805</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>